--- a/2 вариант/1 модуль/2 вариант.xlsx
+++ b/2 вариант/1 модуль/2 вариант.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Komori\Desktop\дем экз\2 вариант\1 модуль\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C#files\Demo-exam\2 вариант\1 модуль\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314C38A5-5620-44AF-A991-793B8DFA6C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E61FEB7-909A-4E8E-84CD-9B475C5C0DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-7350" windowWidth="16440" windowHeight="29040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Goods" sheetId="1" r:id="rId1"/>
@@ -1478,7 +1478,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
